--- a/public/local-solver-package/Result_14/hospital_schedule.xlsx
+++ b/public/local-solver-package/Result_14/hospital_schedule.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hospital_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hospital_2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1275,4 +1276,874 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Assignee</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ShiftID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-10-26T12:00:00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-10-26T12:00:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-10-26_MD_S2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-10-27T12:00:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-10-27T12:00:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-10-27_MD_S2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-10-28T12:00:00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-10-28T12:00:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-10-28_MD_S2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-10-29T12:00:00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-10-29T12:00:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-10-29_MD_S2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-10-30T12:00:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-10-30T12:00:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-10-30_MD_S2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-10-31T12:00:00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-10-31T12:00:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-10-31_MD_S2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-10-29T20:00:00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-10-29T20:00:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-10-29_MD_N</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-10-30T20:00:00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-10-30T20:00:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-10-30_MD_N</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-10-31T20:00:00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-10-31T20:00:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-10-31_MD_N</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-10-23T20:00:00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-10-23T08:00:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-10-23_MD_N</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-10-23T08:00:00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-10-23T16:00:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-10-23_MD_D</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-10-23T14:00:00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-10-23T22:00:00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-10-23_MD_S3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-10-24T12:00:00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-10-24T20:00:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-10-24_MD_S2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-10-25T12:00:00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-10-25T20:00:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-10-25_MD_S2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PEDS</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-10-27T08:00:00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2025-10-27T16:00:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-10-27_MD_PEDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-10-27T08:00:00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2025-10-27T16:00:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-10-27_MD_D</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-10-23T12:00:00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2025-10-23T20:00:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-10-23_MD_S2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-10-24T08:00:00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-10-24T16:00:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-10-24_MD_D</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-10-24T10:00:00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2025-10-24T18:00:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-10-24_MD_S1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-10-24T14:00:00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2025-10-24T22:00:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-10-24_MD_S3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-10-22T08:00:00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2025-10-22T16:00:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-10-22_MD_D</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-10-22T12:00:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-10-22T20:00:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-10-22_MD_S2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/public/local-solver-package/Result_14/hospital_schedule.xlsx
+++ b/public/local-solver-package/Result_14/hospital_schedule.xlsx
@@ -467,22 +467,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>NP</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-26T12:00:00</t>
+          <t>2025-10-26T19:00:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-10-26T12:00:00</t>
+          <t>2025-10-26T07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -541,22 +541,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>NP</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-28T12:00:00</t>
+          <t>2025-10-28T19:00:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-10-28T12:00:00</t>
+          <t>2025-10-28T07:00:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -578,12 +578,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>Swing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-10-29T12:00:00</t>
+          <t>2025-10-29T22:00:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -615,22 +615,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-30T12:00:00</t>
+          <t>2025-10-30T08:30:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-10-30T12:00:00</t>
+          <t>2025-10-30T18:30:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -800,12 +800,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Flex</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -837,22 +837,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-23T08:00:00</t>
+          <t>2025-10-23T08:30:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-10-23T16:00:00</t>
+          <t>2025-10-23T18:30:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -874,22 +874,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>NP</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-23T14:00:00</t>
+          <t>2025-10-23T19:00:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-10-23T22:00:00</t>
+          <t>2025-10-23T07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -916,17 +916,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-24T12:00:00</t>
+          <t>2025-10-24T18:00:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-10-24T20:00:00</t>
+          <t>2025-10-24T08:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -948,22 +948,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Flex</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-25T12:00:00</t>
+          <t>2025-10-25T08:00:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-10-25T20:00:00</t>
+          <t>2025-10-25T16:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -985,22 +985,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>NP</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PEDS</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-27T08:00:00</t>
+          <t>2025-10-27T09:00:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-10-27T16:00:00</t>
+          <t>2025-10-27T17:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1022,22 +1022,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Swing</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-27T08:00:00</t>
+          <t>2025-10-27T12:00:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-10-27T16:00:00</t>
+          <t>2025-10-27T22:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1064,17 +1064,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-23T12:00:00</t>
+          <t>2025-10-23T08:00:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-10-23T20:00:00</t>
+          <t>2025-10-23T18:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1096,22 +1096,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>NP</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-24T08:00:00</t>
+          <t>2025-10-24T09:00:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-10-24T16:00:00</t>
+          <t>2025-10-24T17:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1133,22 +1133,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>Swing</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-24T10:00:00</t>
+          <t>2025-10-24T12:00:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-10-24T18:00:00</t>
+          <t>2025-10-24T22:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1170,22 +1170,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Flex</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-24T14:00:00</t>
+          <t>2025-10-24T08:00:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-10-24T22:00:00</t>
+          <t>2025-10-24T16:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1207,22 +1207,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-22T08:00:00</t>
+          <t>2025-10-22T08:30:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-10-22T16:00:00</t>
+          <t>2025-10-22T18:30:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1244,22 +1244,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>NP</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-22T12:00:00</t>
+          <t>2025-10-22T19:00:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-10-22T20:00:00</t>
+          <t>2025-10-22T07:00:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1337,22 +1337,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>NP</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-26T12:00:00</t>
+          <t>2025-10-26T19:00:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-10-26T12:00:00</t>
+          <t>2025-10-26T07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1411,22 +1411,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>NP</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-28T12:00:00</t>
+          <t>2025-10-28T19:00:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-10-28T12:00:00</t>
+          <t>2025-10-28T07:00:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1448,12 +1448,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>Swing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-10-29T12:00:00</t>
+          <t>2025-10-29T22:00:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1485,22 +1485,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-30T12:00:00</t>
+          <t>2025-10-30T08:30:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-10-30T12:00:00</t>
+          <t>2025-10-30T18:30:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Flex</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1707,22 +1707,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-23T08:00:00</t>
+          <t>2025-10-23T08:30:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-10-23T16:00:00</t>
+          <t>2025-10-23T18:30:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1744,22 +1744,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>NP</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-23T14:00:00</t>
+          <t>2025-10-23T19:00:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-10-23T22:00:00</t>
+          <t>2025-10-23T07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1786,17 +1786,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-24T12:00:00</t>
+          <t>2025-10-24T18:00:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-10-24T20:00:00</t>
+          <t>2025-10-24T08:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1818,22 +1818,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Flex</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-25T12:00:00</t>
+          <t>2025-10-25T08:00:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-10-25T20:00:00</t>
+          <t>2025-10-25T16:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1855,22 +1855,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>NP</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PEDS</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-27T08:00:00</t>
+          <t>2025-10-27T09:00:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-10-27T16:00:00</t>
+          <t>2025-10-27T17:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1892,22 +1892,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Swing</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-27T08:00:00</t>
+          <t>2025-10-27T12:00:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-10-27T16:00:00</t>
+          <t>2025-10-27T22:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1934,17 +1934,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-23T12:00:00</t>
+          <t>2025-10-23T08:00:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-10-23T20:00:00</t>
+          <t>2025-10-23T18:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1966,22 +1966,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>NP</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-24T08:00:00</t>
+          <t>2025-10-24T09:00:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-10-24T16:00:00</t>
+          <t>2025-10-24T17:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2003,22 +2003,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>Swing</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-24T10:00:00</t>
+          <t>2025-10-24T12:00:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-10-24T18:00:00</t>
+          <t>2025-10-24T22:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2040,22 +2040,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Flex</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-24T14:00:00</t>
+          <t>2025-10-24T08:00:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-10-24T22:00:00</t>
+          <t>2025-10-24T16:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2077,22 +2077,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-22T08:00:00</t>
+          <t>2025-10-22T08:30:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-10-22T16:00:00</t>
+          <t>2025-10-22T18:30:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2114,22 +2114,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>NP</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-22T12:00:00</t>
+          <t>2025-10-22T19:00:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-10-22T20:00:00</t>
+          <t>2025-10-22T07:00:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
